--- a/webscrapping school/adasats2/Linsk.xlsx
+++ b/webscrapping school/adasats2/Linsk.xlsx
@@ -20,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="191">
   <si>
     <t xml:space="preserve">Link</t>
   </si>
   <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subcategory</t>
+  </si>
+  <si>
     <t xml:space="preserve">Product Name</t>
   </si>
   <si>
     <t xml:space="preserve">price</t>
   </si>
   <si>
-    <t xml:space="preserve">eye poer</t>
+    <t xml:space="preserve">Eye power</t>
   </si>
   <si>
     <t xml:space="preserve">Description:</t>
@@ -52,7 +58,13 @@
     <t xml:space="preserve">https://www.boutiqaat.com/en-kw/women/one-day-vitamin-contact-lenses-30-pcs-1/p/</t>
   </si>
   <si>
+    <t xml:space="preserve">Women</t>
+  </si>
+  <si>
     <t xml:space="preserve">One Day Vitamin Contact Lenses - 30 pcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5, -0.75, -1, -1.25, -1.5, -1.75, -2, -2.25, -2.5, -2.75, -3, -3.25, -3.5, -3.75, -4, -4.25, -4.5, -4.75, -5, -5.25, -5.5, -5.75, -6, -6.5, -7, -7.5, -8, -8.5, -9, -9.5, -10</t>
   </si>
   <si>
     <t xml:space="preserve">Eyebou daily disposable vitamin contact lenses are made of 42% Etafilcon A, 58% water and immersed in a saline solution infused with vitamins B6, B12 and E. These lenses offer a blend of comfort and eye health support, helping eyes feel refreshed throughout the day. A good choice for sensitive eyes.
@@ -72,9 +84,6 @@
     <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-1.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">Women</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.boutiqaat.com/en-kw/women/bl-renu-multi-plus-360ml-i-00000151832-1/p/</t>
   </si>
   <si>
@@ -167,17 +176,8 @@
     <t xml:space="preserve">Quarterly Coffee Contact Lenses - Espresso</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00
--0.50
--1.00
--1.50
--2.00
--2.50
--3.00
--3.50
--4.00
--4.50
--5.00</t>
+    <t xml:space="preserve">0.00, -0.50, -1.00, -1.50, -2.00, -2.50, -3.00, -3.50, -4.00, -4.50, -5.00
+</t>
   </si>
   <si>
     <t xml:space="preserve">Description:
@@ -269,20 +269,6 @@
     <t xml:space="preserve">Quarterly Attitude 3 Tones Contact Lenses - Precious Grey</t>
   </si>
   <si>
-    <t xml:space="preserve">
-0.00
--0.50
--1.00
--1.50
--2.00
--2.50
--3.00
--3.50
--4.00
--4.50
--5.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">Conf-507948</t>
   </si>
   <si>
@@ -416,6 +402,9 @@
     <t xml:space="preserve">Daily Attitude 2 Tones Contact Lenses - Rebel Grey</t>
   </si>
   <si>
+    <t xml:space="preserve">0.00, -0.50, -1.00, -1.50, -2.00, -2.50, -3.00, -3.50, -4.00, -4.50, -5.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description:
 Designed to blend with your natural eye color to create a more natural look, these two toned contact lenses allow dark eyes to be lightened and bright eyes to be enhanced
 Specifications:
@@ -579,6 +568,12 @@
     <t xml:space="preserve">https://tatayab.com/kw-en/catalog/product/view/id/28271/s/6-months-marvel-contact-lenses-mielo/category/2/</t>
   </si>
   <si>
+    <t xml:space="preserve">Eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact Lense</t>
+  </si>
+  <si>
     <t xml:space="preserve">6 Months Marvel Contact Lenses - Mielo</t>
   </si>
   <si>
@@ -785,7 +780,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -818,12 +813,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -868,7 +858,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -877,11 +867,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -889,16 +875,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1024,957 +1006,1160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G42" activeCellId="0" sqref="G42"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="93.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="2" style="2" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="2" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="121.27"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="n">
+    </row>
+    <row r="2" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="n">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <f aca="false">-0.5 -0.75 -1 -1.25 -1.5 -1.75 -2 -2.25 -2.5 -2.75 -3 -3.25 -3.5 -3.75 -4 -4.25 -4.5 -4.75 -5 -5.25 -5.5 -5.75 -6 -6.5 -7 -7.5 -8 -8.5 -9 -9.5 -10</f>
-        <v>-140.75</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>13</v>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="2" t="s">
+      <c r="F8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="2" t="n">
+      <c r="F10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="E28" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="G28" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="2" t="n">
+    </row>
+    <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E29" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="140.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+      <c r="F29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="140.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="140.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="B30" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="117.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="129.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>147</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5"/>
+      <c r="G39" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="94.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>183</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>185</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="F41" s="5"/>
+      <c r="G41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.boutiqaat.com/en-kw/women/one-day-vitamin-contact-lenses-30-pcs-1/p/"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-1.jpg"/>
-    <hyperlink ref="G20" r:id="rId3" display="https://v2cdn.boutiqaat.com/media/catalog/product/r/e/rebel_grey_1.jpg"/>
-    <hyperlink ref="G21" r:id="rId4" display="https://v2cdn.boutiqaat.com/media/catalog/product/w/i/wild_green_1.jpg"/>
-    <hyperlink ref="G22" r:id="rId5" display="https://v2cdn.boutiqaat.com/media/catalog/product/r/o/romantic_blue_1.jpg"/>
-    <hyperlink ref="G23" r:id="rId6" display="https://www.boutiqaat.com/en-kw/women/daily-attitude-2-tones-contact-lenses-delicious-honey/p/"/>
-    <hyperlink ref="G24" r:id="rId7" display="https://v2cdn.boutiqaat.com/media/catalog/product/b/l/blackcoffee_1.jpg"/>
-    <hyperlink ref="G25" r:id="rId8" display="https://v2cdn.boutiqaat.com/media/catalog/product/9/1/911194_1.jpg"/>
-    <hyperlink ref="G26" r:id="rId9" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/009498-000.jpg"/>
-    <hyperlink ref="G27" r:id="rId10" display="https://v2cdn.boutiqaat.com/media/catalog/product/8/0/808790_1.jpg"/>
-    <hyperlink ref="G28" r:id="rId11" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/001909_1.jpg"/>
-    <hyperlink ref="G29" r:id="rId12" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/003428_1.jpg"/>
-    <hyperlink ref="G30" r:id="rId13" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4487_3.jpg"/>
-    <hyperlink ref="G31" r:id="rId14" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4486_3.jpg"/>
-    <hyperlink ref="G32" r:id="rId15" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4485_3.jpg"/>
-    <hyperlink ref="G33" r:id="rId16" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4484_3.jpg"/>
-    <hyperlink ref="G34" r:id="rId17" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4482_3.jpg"/>
-    <hyperlink ref="G36" r:id="rId18" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4481_3.jpg"/>
-    <hyperlink ref="G37" r:id="rId19" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4479_3.jpg"/>
-    <hyperlink ref="G39" r:id="rId20" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4478_3.jpg"/>
-    <hyperlink ref="G40" r:id="rId21" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4476_3.jpg"/>
-    <hyperlink ref="G41" r:id="rId22" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4477_3.jpg"/>
+    <hyperlink ref="I2" r:id="rId2" display="https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-1.jpg"/>
+    <hyperlink ref="I20" r:id="rId3" display="https://v2cdn.boutiqaat.com/media/catalog/product/r/e/rebel_grey_1.jpg"/>
+    <hyperlink ref="I21" r:id="rId4" display="https://v2cdn.boutiqaat.com/media/catalog/product/w/i/wild_green_1.jpg"/>
+    <hyperlink ref="I22" r:id="rId5" display="https://v2cdn.boutiqaat.com/media/catalog/product/r/o/romantic_blue_1.jpg"/>
+    <hyperlink ref="I23" r:id="rId6" display="https://www.boutiqaat.com/en-kw/women/daily-attitude-2-tones-contact-lenses-delicious-honey/p/"/>
+    <hyperlink ref="I24" r:id="rId7" display="https://v2cdn.boutiqaat.com/media/catalog/product/b/l/blackcoffee_1.jpg"/>
+    <hyperlink ref="I25" r:id="rId8" display="https://v2cdn.boutiqaat.com/media/catalog/product/9/1/911194_1.jpg"/>
+    <hyperlink ref="I26" r:id="rId9" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/009498-000.jpg"/>
+    <hyperlink ref="I27" r:id="rId10" display="https://v2cdn.boutiqaat.com/media/catalog/product/8/0/808790_1.jpg"/>
+    <hyperlink ref="I28" r:id="rId11" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/001909_1.jpg"/>
+    <hyperlink ref="I29" r:id="rId12" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/003428_1.jpg"/>
+    <hyperlink ref="I30" r:id="rId13" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4487_3.jpg"/>
+    <hyperlink ref="I31" r:id="rId14" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4486_3.jpg"/>
+    <hyperlink ref="I32" r:id="rId15" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4485_3.jpg"/>
+    <hyperlink ref="I33" r:id="rId16" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4484_3.jpg"/>
+    <hyperlink ref="I34" r:id="rId17" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4482_3.jpg"/>
+    <hyperlink ref="I36" r:id="rId18" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4481_3.jpg"/>
+    <hyperlink ref="I37" r:id="rId19" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4479_3.jpg"/>
+    <hyperlink ref="I39" r:id="rId20" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4478_3.jpg"/>
+    <hyperlink ref="I40" r:id="rId21" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4476_3.jpg"/>
+    <hyperlink ref="I41" r:id="rId22" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4477_3.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/webscrapping school/adasats2/Linsk.xlsx
+++ b/webscrapping school/adasats2/Linsk.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t xml:space="preserve">Link</t>
   </si>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-2.jpg,https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-3.jpg,https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-4.jpg,https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-5.jpg,https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-3.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.boutiqaat.com/en-kw/women/bl-renu-multi-plus-360ml-i-00000151832-1/p/</t>
   </si>
   <si>
@@ -102,6 +105,27 @@
   </si>
   <si>
     <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151832-1.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151832-1.jpg, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151832-2.jpg</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">https://www.boutiqaat.com/en-kw/women/bl-renu-multi-plus-240ml-i-00000151831-1/p/</t>
@@ -126,6 +150,27 @@
     <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151831-1.jpg</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151831-1.jpg, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151831-2.jpg</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.boutiqaat.com/en-kw/women/bl-bio-true-mps-300ml-i-00000151829-1/p/</t>
   </si>
   <si>
@@ -146,6 +191,9 @@
     <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151829-1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151829-1.jpg, https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151829-2.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.boutiqaat.com/en-kw/women/bl-bio-true-mps-120ml-i-00000151828-1/p/</t>
   </si>
   <si>
@@ -158,6 +206,9 @@
     <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151828-1.jpg</t>
   </si>
   <si>
+    <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151828-1.jpg, https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151828-2.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.boutiqaat.com/en-kw/women/bl-bio-true-mps-60ml-i-00000151827-1/p/</t>
   </si>
   <si>
@@ -168,6 +219,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151827-1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151827-1.jpg, https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151827-2.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.boutiqaat.com/en-kw/women/quarterly-coffee-contact-lenses-espresso/p/</t>
@@ -780,7 +834,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -813,6 +867,13 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -858,7 +919,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -881,6 +942,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1009,9 +1074,9 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1057,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="175.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1086,1051 +1151,1078 @@
       <c r="J2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="K2" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>4.5</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>3.8</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>7</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>3.5</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E14" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E20" s="1" t="n">
         <v>9.75</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E21" s="1" t="n">
         <v>9.75</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>9.75</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="1" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E23" s="1" t="n">
         <v>9.75</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="1" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="1" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E25" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E26" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E27" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E28" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E29" s="1" t="n">
         <v>15</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E30" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F30" s="5"/>
       <c r="G30" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E31" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F31" s="5"/>
       <c r="G31" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E32" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F32" s="5"/>
       <c r="G32" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E33" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F33" s="5"/>
       <c r="G33" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E34" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F34" s="5"/>
       <c r="G34" s="1" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F35" s="5"/>
       <c r="G35" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F36" s="5"/>
       <c r="G36" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F37" s="5"/>
       <c r="G37" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E38" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F38" s="5"/>
       <c r="G38" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E39" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F39" s="5"/>
       <c r="G39" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F40" s="5"/>
       <c r="G40" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E41" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F41" s="5"/>
       <c r="G41" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,26 +2232,29 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="https://www.boutiqaat.com/en-kw/women/one-day-vitamin-contact-lenses-30-pcs-1/p/"/>
     <hyperlink ref="I2" r:id="rId2" display="https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-1.jpg"/>
-    <hyperlink ref="I20" r:id="rId3" display="https://v2cdn.boutiqaat.com/media/catalog/product/r/e/rebel_grey_1.jpg"/>
-    <hyperlink ref="I21" r:id="rId4" display="https://v2cdn.boutiqaat.com/media/catalog/product/w/i/wild_green_1.jpg"/>
-    <hyperlink ref="I22" r:id="rId5" display="https://v2cdn.boutiqaat.com/media/catalog/product/r/o/romantic_blue_1.jpg"/>
-    <hyperlink ref="I23" r:id="rId6" display="https://www.boutiqaat.com/en-kw/women/daily-attitude-2-tones-contact-lenses-delicious-honey/p/"/>
-    <hyperlink ref="I24" r:id="rId7" display="https://v2cdn.boutiqaat.com/media/catalog/product/b/l/blackcoffee_1.jpg"/>
-    <hyperlink ref="I25" r:id="rId8" display="https://v2cdn.boutiqaat.com/media/catalog/product/9/1/911194_1.jpg"/>
-    <hyperlink ref="I26" r:id="rId9" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/009498-000.jpg"/>
-    <hyperlink ref="I27" r:id="rId10" display="https://v2cdn.boutiqaat.com/media/catalog/product/8/0/808790_1.jpg"/>
-    <hyperlink ref="I28" r:id="rId11" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/001909_1.jpg"/>
-    <hyperlink ref="I29" r:id="rId12" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/003428_1.jpg"/>
-    <hyperlink ref="I30" r:id="rId13" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4487_3.jpg"/>
-    <hyperlink ref="I31" r:id="rId14" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4486_3.jpg"/>
-    <hyperlink ref="I32" r:id="rId15" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4485_3.jpg"/>
-    <hyperlink ref="I33" r:id="rId16" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4484_3.jpg"/>
-    <hyperlink ref="I34" r:id="rId17" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4482_3.jpg"/>
-    <hyperlink ref="I36" r:id="rId18" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4481_3.jpg"/>
-    <hyperlink ref="I37" r:id="rId19" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4479_3.jpg"/>
-    <hyperlink ref="I39" r:id="rId20" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4478_3.jpg"/>
-    <hyperlink ref="I40" r:id="rId21" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4476_3.jpg"/>
-    <hyperlink ref="I41" r:id="rId22" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4477_3.jpg"/>
+    <hyperlink ref="K2" r:id="rId3" display="https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-2.jpg,https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-3.jpg,https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-4.jpg,https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-5.jpg,https://v2cdn.boutiqaat.com/media/catalog/product/C/o/Conf-573700-3.jpg"/>
+    <hyperlink ref="K3" r:id="rId4" display="https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151832-2.jpg"/>
+    <hyperlink ref="K4" r:id="rId5" display="https://v2cdn.boutiqaat.com/media/catalog/product/I/-/I-00000151831-2.jpg"/>
+    <hyperlink ref="I20" r:id="rId6" display="https://v2cdn.boutiqaat.com/media/catalog/product/r/e/rebel_grey_1.jpg"/>
+    <hyperlink ref="I21" r:id="rId7" display="https://v2cdn.boutiqaat.com/media/catalog/product/w/i/wild_green_1.jpg"/>
+    <hyperlink ref="I22" r:id="rId8" display="https://v2cdn.boutiqaat.com/media/catalog/product/r/o/romantic_blue_1.jpg"/>
+    <hyperlink ref="I23" r:id="rId9" display="https://www.boutiqaat.com/en-kw/women/daily-attitude-2-tones-contact-lenses-delicious-honey/p/"/>
+    <hyperlink ref="I24" r:id="rId10" display="https://v2cdn.boutiqaat.com/media/catalog/product/b/l/blackcoffee_1.jpg"/>
+    <hyperlink ref="I25" r:id="rId11" display="https://v2cdn.boutiqaat.com/media/catalog/product/9/1/911194_1.jpg"/>
+    <hyperlink ref="I26" r:id="rId12" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/009498-000.jpg"/>
+    <hyperlink ref="I27" r:id="rId13" display="https://v2cdn.boutiqaat.com/media/catalog/product/8/0/808790_1.jpg"/>
+    <hyperlink ref="I28" r:id="rId14" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/001909_1.jpg"/>
+    <hyperlink ref="I29" r:id="rId15" display="https://v2cdn.boutiqaat.com/media/catalog/product/0/0/003428_1.jpg"/>
+    <hyperlink ref="I30" r:id="rId16" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4487_3.jpg"/>
+    <hyperlink ref="I31" r:id="rId17" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4486_3.jpg"/>
+    <hyperlink ref="I32" r:id="rId18" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4485_3.jpg"/>
+    <hyperlink ref="I33" r:id="rId19" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4484_3.jpg"/>
+    <hyperlink ref="I34" r:id="rId20" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4482_3.jpg"/>
+    <hyperlink ref="I36" r:id="rId21" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4481_3.jpg"/>
+    <hyperlink ref="I37" r:id="rId22" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4479_3.jpg"/>
+    <hyperlink ref="I39" r:id="rId23" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4478_3.jpg"/>
+    <hyperlink ref="I40" r:id="rId24" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4476_3.jpg"/>
+    <hyperlink ref="I41" r:id="rId25" display="https://tatayab.com/cdn-cgi/image/quality=80/media/catalog/product/cache/06a980a98afa5c2b2e2874710e14fc80/M/A/MAR-011-W4477_3.jpg"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
